--- a/time_optimization.xlsx
+++ b/time_optimization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Others\source\repos\Chess\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E159783E-EA1C-4B89-95DC-238E5C56B37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4418466-50E3-46AC-9647-C7410C4C26E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{57897172-06F5-4A42-8E47-4E3B3D7B28DC}"/>
+    <workbookView xWindow="2760" yWindow="3375" windowWidth="21600" windowHeight="11295" xr2:uid="{57897172-06F5-4A42-8E47-4E3B3D7B28DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>AVG_VECTOR_C</t>
   </si>
   <si>
     <t>AVG_VECTOR_GPU_FIRST_ATT</t>
+  </si>
+  <si>
+    <t>GPU_Ndimentions method</t>
+  </si>
+  <si>
+    <t>GPU_GENERATIVE</t>
   </si>
 </sst>
 </file>
@@ -140,31 +146,83 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-EE1B-4CC7-A71A-FEC6D1215751}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-EE1B-4CC7-A71A-FEC6D1215751}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$C$1</c:f>
+              <c:f>Sheet1!$B$1:$E$1</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>AVG_VECTOR_C</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>AVG_VECTOR_GPU_FIRST_ATT</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>GPU_Ndimentions method</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GPU_GENERATIVE</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$10:$C$10</c:f>
+              <c:f>Sheet1!$B$2:$E$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6.4485749999999994E-2</c:v>
+                  <c:v>6.3977999999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0693539999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2021930000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5343000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -894,16 +952,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1228,73 +1286,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073E14B9-49E0-4509-AACD-34048F0ED170}">
-  <dimension ref="B1:C10"/>
+  <dimension ref="B1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>6.1549E-2</v>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>6.8481E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>6.3033000000000006E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>6.6747000000000001E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>6.2273000000000002E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>6.6392000000000007E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2">
         <v>6.3977999999999993E-2</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>6.3433000000000003E-2</v>
+      <c r="C2">
+        <v>1.0693539999999999</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <f>AVERAGE(B2:B9)</f>
-        <v>6.4485749999999994E-2</v>
+      <c r="D2">
+        <v>1.2021930000000001</v>
       </c>
-      <c r="C10">
-        <v>1.0693539999999999</v>
+      <c r="E2">
+        <v>4.5343000000000001E-2</v>
       </c>
     </row>
   </sheetData>

--- a/time_optimization.xlsx
+++ b/time_optimization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Others\source\repos\Chess\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4418466-50E3-46AC-9647-C7410C4C26E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EA3C72-BC85-41B9-B626-94358778DE5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2760" yWindow="3375" windowWidth="21600" windowHeight="11295" xr2:uid="{57897172-06F5-4A42-8E47-4E3B3D7B28DC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>AVG_VECTOR_C</t>
   </si>
@@ -38,13 +38,34 @@
   <si>
     <t>GPU_GENERATIVE</t>
   </si>
+  <si>
+    <t>GPU_CLEANUP+GOOD_WORK_SIZE</t>
+  </si>
+  <si>
+    <t>Improvement</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -69,14 +90,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -186,11 +213,30 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-E681-4243-AE4F-D6052FA9CF2A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$E$1</c:f>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>AVG_VECTOR_C</c:v>
                 </c:pt>
@@ -203,15 +249,18 @@
                 <c:pt idx="3">
                   <c:v>GPU_GENERATIVE</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>GPU_CLEANUP+GOOD_WORK_SIZE</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$E$2</c:f>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>6.3977999999999993E-2</c:v>
                 </c:pt>
@@ -223,6 +272,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4.5343000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8478000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -301,6 +353,7 @@
         <c:axId val="1918183376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -952,16 +1005,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1286,10 +1339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073E14B9-49E0-4509-AACD-34048F0ED170}">
-  <dimension ref="B1:E2"/>
+  <dimension ref="B1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1298,9 +1351,11 @@
     <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1313,8 +1368,11 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>6.3977999999999993E-2</v>
       </c>
@@ -1327,6 +1385,20 @@
       <c r="E2">
         <v>4.5343000000000001E-2</v>
       </c>
+      <c r="F2">
+        <v>1.8478000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H6" s="1">
+        <f>B2/MIN(C2:F2)</f>
+        <v>3.4623877042970013</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/time_optimization.xlsx
+++ b/time_optimization.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Others\source\repos\Chess\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EA3C72-BC85-41B9-B626-94358778DE5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3DCCF0-4532-4A37-A135-AE1201FF9BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="3375" windowWidth="21600" windowHeight="11295" xr2:uid="{57897172-06F5-4A42-8E47-4E3B3D7B28DC}"/>
+    <workbookView xWindow="2760" yWindow="3375" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{57897172-06F5-4A42-8E47-4E3B3D7B28DC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="AVG_VECTOR" sheetId="1" r:id="rId1"/>
+    <sheet name="BACK_PROP" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>AVG_VECTOR_C</t>
   </si>
@@ -43,6 +44,12 @@
   </si>
   <si>
     <t>Improvement</t>
+  </si>
+  <si>
+    <t>SEQUANTIAL</t>
+  </si>
+  <si>
+    <t>FIRST_ATTEMPT</t>
   </si>
 </sst>
 </file>
@@ -234,7 +241,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:f>AVG_VECTOR!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -257,7 +264,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$F$2</c:f>
+              <c:f>AVG_VECTOR!$B$2:$F$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -458,7 +465,319 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.1531037832767556E-2"/>
+          <c:y val="8.5006966721752356E-2"/>
+          <c:w val="0.94707294963500854"/>
+          <c:h val="0.81235518399706208"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A152-4F7B-AECF-233194DA7E65}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>BACK_PROP!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>SEQUANTIAL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FIRST_ATTEMPT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BACK_PROP!$B$2:$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-A152-4F7B-AECF-233194DA7E65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1918192016"/>
+        <c:axId val="1918183376"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1918192016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1918183376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1918183376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1918192016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1001,6 +1320,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1026,6 +1848,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96FE80F3-5ACC-43F9-A418-8DC60567D15E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1341,8 +2206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073E14B9-49E0-4509-AACD-34048F0ED170}">
   <dimension ref="B1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H5:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1404,4 +2269,52 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D6E3DA-EADB-4375-944B-048629D40409}">
+  <dimension ref="B1:O5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>210</v>
+      </c>
+      <c r="C2">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O5" s="1">
+        <f>B2/MIN(C2)</f>
+        <v>0.19160583941605838</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/time_optimization.xlsx
+++ b/time_optimization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Others\source\repos\Chess\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3DCCF0-4532-4A37-A135-AE1201FF9BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3109723F-51D4-4662-B4CC-902CBCC207EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2760" yWindow="3375" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{57897172-06F5-4A42-8E47-4E3B3D7B28DC}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>AVG_VECTOR_C</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>FIRST_ATTEMPT</t>
+  </si>
+  <si>
+    <t>MATRIX_MUL</t>
   </si>
 </sst>
 </file>
@@ -530,31 +533,58 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-AF8E-45C5-9DDA-0DC652F8118E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>BACK_PROP!$B$1:$C$1</c:f>
+              <c:f>BACK_PROP!$B$1:$D$1</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>SEQUANTIAL</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>FIRST_ATTEMPT</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>MATRIX_MUL</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BACK_PROP!$B$2:$C$2</c:f>
+              <c:f>BACK_PROP!$B$2:$D$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2276,13 +2306,14 @@
   <dimension ref="B1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2293,6 +2324,9 @@
       <c r="C1" t="s">
         <v>7</v>
       </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2">
@@ -2300,6 +2334,9 @@
       </c>
       <c r="C2">
         <v>1096</v>
+      </c>
+      <c r="D2">
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">

--- a/time_optimization.xlsx
+++ b/time_optimization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Others\source\repos\Chess\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3109723F-51D4-4662-B4CC-902CBCC207EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25967E1-0DCF-4B7A-9371-BE19AA9534C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2760" yWindow="3375" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{57897172-06F5-4A42-8E47-4E3B3D7B28DC}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>AVG_VECTOR_C</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>MATRIX_MUL</t>
+  </si>
+  <si>
+    <t>RE_EVAL</t>
   </si>
 </sst>
 </file>
@@ -556,9 +559,9 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>BACK_PROP!$B$1:$D$1</c:f>
+              <c:f>BACK_PROP!$B$1:$E$1</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>SEQUANTIAL</c:v>
                 </c:pt>
@@ -568,15 +571,18 @@
                 <c:pt idx="2">
                   <c:v>MATRIX_MUL</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>RE_EVAL</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BACK_PROP!$B$2:$D$2</c:f>
+              <c:f>BACK_PROP!$B$2:$E$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>210</c:v>
                 </c:pt>
@@ -585,6 +591,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -663,6 +672,7 @@
         <c:axId val="1918183376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="300"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2305,8 +2315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D6E3DA-EADB-4375-944B-048629D40409}">
   <dimension ref="B1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2327,6 +2337,9 @@
       <c r="D1" t="s">
         <v>8</v>
       </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2">
@@ -2338,6 +2351,9 @@
       <c r="D2">
         <v>68</v>
       </c>
+      <c r="E2">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="O4" s="2" t="s">
@@ -2346,8 +2362,8 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="O5" s="1">
-        <f>B2/MIN(C2)</f>
-        <v>0.19160583941605838</v>
+        <f>B2/MIN(C2:E2)</f>
+        <v>9.1304347826086953</v>
       </c>
     </row>
   </sheetData>
